--- a/MoSiR/RadiativeForcing/Dynco2_Base.xlsx
+++ b/MoSiR/RadiativeForcing/Dynco2_Base.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MoSiR\MoSiR\RadiativeForcing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B813ECD5-D07E-44AB-AE11-16DE0CC0E996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA60189-ABB2-47E4-B495-5154A2224D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" xr2:uid="{3EE2624D-7413-46B2-A863-78608229458D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3EE2624D-7413-46B2-A863-78608229458D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="RF" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
